--- a/DSAQuestionList.xlsx
+++ b/DSAQuestionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -82,6 +82,60 @@
   </si>
   <si>
     <t>Numbers</t>
+  </si>
+  <si>
+    <t>Q-10</t>
+  </si>
+  <si>
+    <t>Q-11</t>
+  </si>
+  <si>
+    <t>Q-12</t>
+  </si>
+  <si>
+    <t>Q-13</t>
+  </si>
+  <si>
+    <t>Q-14</t>
+  </si>
+  <si>
+    <t>Q-15</t>
+  </si>
+  <si>
+    <t>Q-16</t>
+  </si>
+  <si>
+    <t>Prime Factorization</t>
+  </si>
+  <si>
+    <t>GCD and LCM</t>
+  </si>
+  <si>
+    <t>Reverse a Number</t>
+  </si>
+  <si>
+    <t>Rotate a Number</t>
+  </si>
+  <si>
+    <t>Inverse of a Number</t>
+  </si>
+  <si>
+    <t>Count Digits of Number</t>
+  </si>
+  <si>
+    <t>Print Digits of Number</t>
+  </si>
+  <si>
+    <t>Q-17</t>
+  </si>
+  <si>
+    <t>Benjamin Bulb</t>
+  </si>
+  <si>
+    <t>Q-18</t>
+  </si>
+  <si>
+    <t>Pythagoren Triplet</t>
   </si>
 </sst>
 </file>
@@ -451,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,6 +625,105 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DSAQuestionList.xlsx
+++ b/DSAQuestionList.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions" sheetId="3" r:id="rId2"/>
+    <sheet name="Arrays" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -136,6 +136,81 @@
   </si>
   <si>
     <t>Pythagoren Triplet</t>
+  </si>
+  <si>
+    <t>BarChart</t>
+  </si>
+  <si>
+    <t>Sum Of Arrays</t>
+  </si>
+  <si>
+    <t>Difference Of Arrays</t>
+  </si>
+  <si>
+    <t>Reverse An Array</t>
+  </si>
+  <si>
+    <t>SubArray</t>
+  </si>
+  <si>
+    <t>Rotate an Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Subset of Array</t>
+  </si>
+  <si>
+    <t>First Index Last Index</t>
+  </si>
+  <si>
+    <t>Q-19</t>
+  </si>
+  <si>
+    <t>Q-20</t>
+  </si>
+  <si>
+    <t>Q-21</t>
+  </si>
+  <si>
+    <t>Q-22</t>
+  </si>
+  <si>
+    <t>Q-23</t>
+  </si>
+  <si>
+    <t>Q-24</t>
+  </si>
+  <si>
+    <t>Q-25</t>
+  </si>
+  <si>
+    <t>Q-26</t>
+  </si>
+  <si>
+    <t>Q-27</t>
+  </si>
+  <si>
+    <t>Q-28</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t>Count Digit Frequency</t>
+  </si>
+  <si>
+    <t>Decimal To Any Base</t>
+  </si>
+  <si>
+    <t>Any Base to Decimal</t>
+  </si>
+  <si>
+    <t>Any Base to Any Base</t>
+  </si>
+  <si>
+    <t>Any Base Addition</t>
   </si>
 </sst>
 </file>
@@ -200,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +284,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,6 +805,116 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -735,24 +923,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DSAQuestionList.xlsx
+++ b/DSAQuestionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Question</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Any Base Addition</t>
+  </si>
+  <si>
+    <t>Broken Economy</t>
+  </si>
+  <si>
+    <t>Any Base Multiplication</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -925,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1106,6 +1112,22 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
